--- a/ArcheryScoresLog.xlsx
+++ b/ArcheryScoresLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ARCHERY SCORES LOG</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Arrows</t>
   </si>
   <si>
-    <t>Style</t>
-  </si>
-  <si>
     <t>Hook</t>
   </si>
   <si>
@@ -122,16 +119,25 @@
     <t>Instinctive</t>
   </si>
   <si>
-    <t>Sub Total</t>
-  </si>
-  <si>
-    <t>Total Score</t>
-  </si>
-  <si>
     <t>Observations</t>
   </si>
   <si>
     <t>Good groupings but all going high to the left</t>
+  </si>
+  <si>
+    <t>End Total</t>
+  </si>
+  <si>
+    <t>Aiming</t>
+  </si>
+  <si>
+    <t>R/T</t>
+  </si>
+  <si>
+    <t>Round Total</t>
+  </si>
+  <si>
+    <t>Round No</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,17 +516,19 @@
     <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="9.140625" style="4"/>
-    <col min="20" max="20" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="9.140625" style="4"/>
+    <col min="21" max="21" width="5.5703125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -543,130 +551,143 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="U3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>34</v>
+      <c r="Y3" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43581</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
         <v>9</v>
-      </c>
-      <c r="N4" s="4">
-        <v>7</v>
       </c>
       <c r="O4" s="4">
         <v>7</v>
       </c>
       <c r="P4" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="4">
         <v>5</v>
       </c>
       <c r="R4" s="4">
+        <v>5</v>
+      </c>
+      <c r="S4" s="4">
         <v>3</v>
       </c>
-      <c r="S4" s="4">
-        <f>SUM(M4:R4)</f>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T9" si="0">SUM(N4:S4)</f>
         <v>36</v>
       </c>
       <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
+        <f>SUM(T4)</f>
+        <v>36</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M5" s="4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
         <v>9</v>
       </c>
-      <c r="N5" s="4">
-        <v>5</v>
-      </c>
       <c r="O5" s="4">
         <v>5</v>
       </c>
@@ -677,22 +698,29 @@
         <v>5</v>
       </c>
       <c r="R5" s="4">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4">
         <v>3</v>
       </c>
-      <c r="S5" s="4">
-        <f>SUM(M5:R5)</f>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="U5" s="4">
+        <f>SUM(T4:T5)</f>
+        <v>68</v>
+      </c>
+      <c r="W5" s="4">
         <v>1</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M6" s="4">
-        <v>5</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
       </c>
       <c r="N6" s="4">
         <v>5</v>
@@ -704,25 +732,32 @@
         <v>5</v>
       </c>
       <c r="Q6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6" s="4">
         <v>3</v>
       </c>
       <c r="S6" s="4">
-        <f>SUM(M6:R6)</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
+        <f>SUM(T4:T6)</f>
+        <v>94</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M7" s="4">
-        <v>5</v>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
       </c>
       <c r="N7" s="4">
         <v>5</v>
@@ -737,26 +772,33 @@
         <v>5</v>
       </c>
       <c r="R7" s="4">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4">
         <v>3</v>
       </c>
-      <c r="S7" s="4">
-        <f>SUM(M7:R7)</f>
+      <c r="T7" s="4">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
+        <f>SUM(T4:T7)</f>
+        <v>122</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M8" s="4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
         <v>7</v>
       </c>
-      <c r="N8" s="4">
-        <v>5</v>
-      </c>
       <c r="O8" s="4">
         <v>5</v>
       </c>
@@ -764,25 +806,32 @@
         <v>5</v>
       </c>
       <c r="Q8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" s="4">
         <v>3</v>
       </c>
       <c r="S8" s="4">
-        <f>SUM(M8:R8)</f>
+        <v>3</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
+        <f>SUM(T4:T8)</f>
+        <v>150</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M9" s="4">
-        <v>5</v>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>1</v>
       </c>
       <c r="N9" s="4">
         <v>5</v>
@@ -800,17 +849,24 @@
         <v>5</v>
       </c>
       <c r="S9" s="4">
-        <f>SUM(M9:R9)</f>
+        <v>5</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="T9" s="4">
-        <f>SUM(S4:S9)</f>
+      <c r="U9" s="4">
+        <f>SUM(T4:T9)</f>
         <v>180</v>
       </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
       <c r="V9" s="4">
+        <f>SUM(U9)</f>
+        <v>180</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
         <v>0</v>
       </c>
     </row>
